--- a/Results/comprehensive_arima_evaluation_results.xlsx
+++ b/Results/comprehensive_arima_evaluation_results.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,693 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ljung-Box p-value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Shapiro-Wilk p-value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ADF p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(0, 1, 0)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(0, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.10421103491529e-28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.237833868579487e-25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(0, 2, 1)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.598057622122923e-28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(0, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.84217895985805e-64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.201351854500301e-29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(0, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.448956236451798e-87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.608818481500033e-30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(0, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.140133557695303e-86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.954445022725165e-18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8416046197340618</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(1, 1, 1)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(1, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.527695726766645e-28</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.412352109262041e-25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(1, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.151177710833574e-64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.056994843930549e-28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(1, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.4039333680109e-86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.356036038450186e-30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(1, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.280961446422251e-86</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.833555296870177e-23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(2, 0, 1)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9717915488815878</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(2, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.595437984894403e-28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.400143708158944e-25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(2, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.208596007081899e-64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.406870889700934e-29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(2, 3, 1)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.937226727427535e-64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.192145282194976e-22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(2, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.382884910728712e-86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.310857256783429e-30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(2, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.272092127121075e-86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.363552580560581e-24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(3, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.61737971978282e-28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.478959447621626e-25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(3, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8.200108776398952e-64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.165266795922455e-28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(3, 3, 1)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.943945320667088e-64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.402299152621371e-22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(3, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.35692308406582e-86</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.485449349161011e-30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(3, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.268352206262759e-86</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.830050803268132e-28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(4, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.615937218608924e-28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.591052791265084e-25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(4, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8.151062678802063e-64</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.079699676831895e-27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(4, 3, 1)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7.911341774154219e-64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.064169117849069e-22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(4, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.333874937064776e-86</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.743835646900055e-30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(4, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.259218038925187e-86</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.138824722031297e-28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(5, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.615536791883267e-28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.2245049676385e-24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(5, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8.108357942792788e-64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.78658425882954e-29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(5, 3, 1)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8.022532064059203e-64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.810391779418854e-25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(5, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.306578550725035e-86</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.599609831267113e-29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(5, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.264026987217202e-86</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.307326256174831e-27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(6, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6.614886362720133e-28</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.474143653891683e-26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(6, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8.103043890034215e-64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.654699158371887e-29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(6, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.300694784405756e-86</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.699289380766995e-29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(6, 4, 1)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.265234787473908e-86</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.554103112938042e-27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(7, 2, 0)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6.602142873784132e-28</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.149804503803696e-25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(7, 3, 0)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8.058664420442601e-64</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.639198483029881e-28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(7, 3, 1)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7.944631817170457e-64</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.781352460325302e-23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(7, 4, 0)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.290154837373385e-86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.524789512980957e-28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>